--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,120 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Student details" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Roll no</t>
-  </si>
-  <si>
-    <t>2023-01-15</t>
-  </si>
-  <si>
-    <t>2023-01-16</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-02-08</t>
-  </si>
-  <si>
-    <t>2023-02-09</t>
-  </si>
-  <si>
-    <t>2023-03-12</t>
-  </si>
-  <si>
-    <t>Manraj Singh</t>
-  </si>
-  <si>
-    <t>In-time: 08:49:41 Out-time: 15:12:12</t>
-  </si>
-  <si>
-    <t>In-time: 08:53:31 Out-time: 14:32:12</t>
-  </si>
-  <si>
-    <t>In-time: 08:29:14 
-Out-time: 15:15:56</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>In-time: 09:00:03 
-Out-time: 12:12:12</t>
-  </si>
-  <si>
-    <t>Arya</t>
-  </si>
-  <si>
-    <t>Bipin</t>
-  </si>
-  <si>
-    <t>In-time: 16:53:57</t>
-  </si>
-  <si>
-    <t>In-time: 16:53:58 
-Out-time: 16:54:15</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -126,52 +46,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -459,128 +417,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="15.86214285714286" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Roll number</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="46.5">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6">
-        <v>69</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Piyush Chugeja</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>In-time: 19:52:10 
+Out-time: 19:52:25</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Roll number</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Parent name</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Parent phone number</t>
+        </is>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>17</v>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Piyush Chugeja</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>7506699134</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Muskan</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>9821539523</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Student details" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Student details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="March" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +46,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -44,18 +63,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,48 +450,70 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="15.86214285714286" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Roll number</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>2023-03-12</t>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Parent name</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Parent email</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Piyush Chugeja</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>In-time: 19:52:10 
-Out-time: 19:52:25</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>piyushchugeja@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Muskan</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>muskan.chugeja@gmail.com</t>
         </is>
       </c>
     </row>
@@ -478,70 +528,49 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="17.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Roll number</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Parent name</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Parent phone number</t>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
+    <row r="2" ht="31.5" customHeight="1">
+      <c r="A2" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Piyush Chugeja</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>7506699134</v>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Muskan</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>9821539523</t>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>In-time: 23:57:54 
+Out-time: 23:57:56</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -17,19 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -65,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -73,16 +67,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -458,60 +449,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="19.86214285714286" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="19.86214285714286" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Roll number</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Parent name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Parent email</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Piyush Chugeja</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>piyushchugeja@gmail.com</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Muskan</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>muskan.chugeja@gmail.com</t>
         </is>
@@ -528,7 +519,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,41 +527,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="17.14785714285714" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Roll no</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>2023-03-12</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
         </is>
       </c>
     </row>
     <row r="2" ht="31.5" customHeight="1">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Piyush Chugeja</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>In-time: 23:57:54 
 Out-time: 23:57:56</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>In-time: 00:04:45 
+Out-time: 00:04:49</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,31 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Deven Bhagtani</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>d2021.deven.bhagtani@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Rajesh</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>devensingh097@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -519,7 +544,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +597,28 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>In-time: 00:04:45 
-Out-time: 00:04:49</t>
+Out-time: 11:35:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>In-time: 11:21:30 
+Out-time: 11:36:04</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B. E. CMPN\Third sem\Face recognition project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE5FE07-6BD4-40E6-9726-C6567DEFA697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2615ACF-335D-4914-ACD2-DAC1E2589DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,30 +22,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+  <si>
+    <t>Roll number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Parent name</t>
+  </si>
+  <si>
+    <t>Parent email</t>
+  </si>
+  <si>
+    <t>Piyush</t>
+  </si>
+  <si>
+    <t>d2021.piyush.chugeja@ves.ac.in</t>
+  </si>
+  <si>
+    <t>Kamlesh</t>
+  </si>
+  <si>
+    <t>piyushchugeja@gmail.com</t>
+  </si>
+  <si>
+    <t>Manraj</t>
+  </si>
+  <si>
+    <t>d2021.manrajsingh.virdi@ves.ac.in</t>
+  </si>
+  <si>
+    <t>Surinder Singh</t>
+  </si>
+  <si>
+    <t>virdimanrajsingh9@gmail.com</t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>d2021.sakshi.kirmathe@ves.ac.in</t>
+  </si>
+  <si>
+    <t>Tanaji</t>
+  </si>
+  <si>
+    <t>skirmathe7@gmail.com</t>
+  </si>
   <si>
     <t>Roll no</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-  <si>
-    <t>Piyush</t>
-  </si>
-  <si>
-    <t>In-time: 17:05:38</t>
-  </si>
-  <si>
-    <t>In-time: 22:43:19 
-Out-time: 22:43:54</t>
-  </si>
-  <si>
     <t>2023-03-27</t>
   </si>
   <si>
@@ -53,75 +85,57 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Roll number</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Parent name</t>
-  </si>
-  <si>
-    <t>Parent email</t>
-  </si>
-  <si>
-    <t>d2021.piyush.chugeja@ves.ac.in</t>
-  </si>
-  <si>
-    <t>piyushchugeja@gmail.com</t>
-  </si>
-  <si>
-    <t>Manraj</t>
-  </si>
-  <si>
-    <t>Sakshi</t>
-  </si>
-  <si>
-    <t>d2021.manrajsingh.virdi@ves.ac.in</t>
-  </si>
-  <si>
-    <t>d2021.sakshi.kirmathe@ves.ac.in</t>
-  </si>
-  <si>
-    <t>Surinder Singh</t>
-  </si>
-  <si>
-    <t>Tanaji</t>
-  </si>
-  <si>
-    <t>Kamlesh</t>
-  </si>
-  <si>
-    <t>virdimanrajsingh9@gmail.com</t>
-  </si>
-  <si>
-    <t>skirmathe7@gmail.com</t>
   </si>
   <si>
     <t>In-time: 08:43:19 
 Out-time: 15:43:54</t>
   </si>
   <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>In-time: 08:04:59 Out-time: 14:02:55</t>
+  </si>
+  <si>
+    <t>In-time: 08:33:10 Out-time: 12:43:41</t>
+  </si>
+  <si>
+    <t>In-time: 22:31:49 
+Out-time: 22:32:01</t>
+  </si>
+  <si>
     <t>In-time: 08:43:19 Out-time: 15:43:54</t>
   </si>
   <si>
-    <t>In-time: 08:52:16 Out-time: 13:43:54</t>
-  </si>
-  <si>
-    <t>In-time: 10:15:19 
-Out-time: 15:11:12</t>
+    <t>In-time: 08:43:19 Out-time: 15:43:55</t>
   </si>
   <si>
     <t>In-time: 08:15:45 
 Out-time: 15:12:06</t>
+  </si>
+  <si>
+    <t>In-time: 08:52:16 Out-time: 13:43:54</t>
+  </si>
+  <si>
+    <t>In-time: 08:52:16 Out-time: 13:43:55</t>
+  </si>
+  <si>
+    <t>In-time: 10:15:19 Out-time: 15:11:12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,23 +146,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,33 +188,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,94 +534,86 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>71</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{C328A6DD-1B14-454D-91FE-7FE934DF8549}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{0857F0C5-D265-499C-AB27-E22A2425E79E}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{0565C7E1-190A-4B81-9114-DC6473ABF034}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{72906E44-27DE-492B-B456-3674CFDF6B7E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -606,59 +625,57 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -671,77 +688,104 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+        <v>22</v>
+      </c>
+      <c r="D1" s="12">
+        <v>45019</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,140 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B. E. CMPN\Third sem\Face recognition project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2615ACF-335D-4914-ACD2-DAC1E2589DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
-    <sheet name="March" sheetId="2" r:id="rId2"/>
-    <sheet name="April" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Details"/>
+    <sheet r:id="rId2" sheetId="2" name="March"/>
+    <sheet r:id="rId3" sheetId="3" name="April"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
-  <si>
-    <t>Roll number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+  <si>
+    <t>Roll no</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Parent name</t>
-  </si>
-  <si>
-    <t>Parent email</t>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-04-06</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
   </si>
   <si>
     <t>Piyush</t>
   </si>
   <si>
-    <t>d2021.piyush.chugeja@ves.ac.in</t>
-  </si>
-  <si>
-    <t>Kamlesh</t>
-  </si>
-  <si>
-    <t>piyushchugeja@gmail.com</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>In-time: 08:33:10 Out-time: 12:43:41</t>
+  </si>
+  <si>
+    <t>In-time: 22:31:49 
+Out-time: 22:32:01</t>
+  </si>
+  <si>
+    <t>In-time: 02:12:12 
+Out-time: 02:12:19</t>
   </si>
   <si>
     <t>Manraj</t>
   </si>
   <si>
-    <t>d2021.manrajsingh.virdi@ves.ac.in</t>
-  </si>
-  <si>
-    <t>Surinder Singh</t>
-  </si>
-  <si>
-    <t>virdimanrajsingh9@gmail.com</t>
+    <t>In-time: 08:43:19 Out-time: 15:43:54</t>
+  </si>
+  <si>
+    <t>In-time: 08:15:45 
+Out-time: 15:12:06</t>
   </si>
   <si>
     <t>Sakshi</t>
   </si>
   <si>
-    <t>d2021.sakshi.kirmathe@ves.ac.in</t>
-  </si>
-  <si>
-    <t>Tanaji</t>
-  </si>
-  <si>
-    <t>skirmathe7@gmail.com</t>
-  </si>
-  <si>
-    <t>Roll no</t>
+    <t>In-time: 08:52:16 Out-time: 13:43:54</t>
+  </si>
+  <si>
+    <t>In-time: 10:15:19 Out-time: 15:11:12</t>
   </si>
   <si>
     <t>2023-03-27</t>
   </si>
   <si>
     <t>Piyush Chugeja</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>In-time: 08:43:19 
 Out-time: 15:43:54</t>
   </si>
   <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-04-05</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>In-time: 08:04:59 Out-time: 14:02:55</t>
-  </si>
-  <si>
-    <t>In-time: 08:33:10 Out-time: 12:43:41</t>
-  </si>
-  <si>
-    <t>In-time: 22:31:49 
-Out-time: 22:32:01</t>
-  </si>
-  <si>
-    <t>In-time: 08:43:19 Out-time: 15:43:54</t>
-  </si>
-  <si>
-    <t>In-time: 08:43:19 Out-time: 15:43:55</t>
-  </si>
-  <si>
-    <t>In-time: 08:15:45 
-Out-time: 15:12:06</t>
-  </si>
-  <si>
-    <t>In-time: 08:52:16 Out-time: 13:43:54</t>
-  </si>
-  <si>
-    <t>In-time: 08:52:16 Out-time: 13:43:55</t>
-  </si>
-  <si>
-    <t>In-time: 10:15:19 Out-time: 15:11:12</t>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>d2021.piyush.chugeja@ves.ac.in</t>
+  </si>
+  <si>
+    <t>d2021.manrajsingh.virdi@ves.ac.in</t>
+  </si>
+  <si>
+    <t>29/12/2003</t>
+  </si>
+  <si>
+    <t>d2021.sakshi.kirmathe@ves.ac.in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -189,56 +163,76 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -249,10 +243,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -290,71 +284,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,7 +376,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -405,11 +399,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -418,13 +412,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -434,7 +428,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -443,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -452,7 +446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -460,10 +454,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -528,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -538,79 +532,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="25.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7506699134</v>
+      </c>
+      <c r="E2" s="14">
+        <v>25569.229462604166</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>69</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8424036665</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
+      <c r="C4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8652839845</v>
+      </c>
+      <c r="E4" s="17">
+        <v>25569.229462604166</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -629,53 +623,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="34.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>69</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -684,108 +678,105 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="33.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="12">
-        <v>45019</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45021.229166666664</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
+      <c r="A2" s="5">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
+      <c r="A3" s="5">
         <v>69</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5">
+      <c r="A4" s="8">
         <v>71</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,146 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Details"/>
-    <sheet r:id="rId2" sheetId="2" name="March"/>
-    <sheet r:id="rId3" sheetId="3" name="April"/>
+    <sheet name="Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="March" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="April" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
-  <si>
-    <t>Roll no</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>Piyush</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>In-time: 08:33:10 Out-time: 12:43:41</t>
-  </si>
-  <si>
-    <t>In-time: 22:31:49 
-Out-time: 22:32:01</t>
-  </si>
-  <si>
-    <t>In-time: 02:12:12 
-Out-time: 02:12:19</t>
-  </si>
-  <si>
-    <t>Manraj</t>
-  </si>
-  <si>
-    <t>In-time: 08:43:19 Out-time: 15:43:54</t>
-  </si>
-  <si>
-    <t>In-time: 08:15:45 
-Out-time: 15:12:06</t>
-  </si>
-  <si>
-    <t>Sakshi</t>
-  </si>
-  <si>
-    <t>In-time: 08:52:16 Out-time: 13:43:54</t>
-  </si>
-  <si>
-    <t>In-time: 10:15:19 Out-time: 15:11:12</t>
-  </si>
-  <si>
-    <t>2023-03-27</t>
-  </si>
-  <si>
-    <t>Piyush Chugeja</t>
-  </si>
-  <si>
-    <t>In-time: 08:43:19 
-Out-time: 15:43:54</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>d2021.piyush.chugeja@ves.ac.in</t>
-  </si>
-  <si>
-    <t>d2021.manrajsingh.virdi@ves.ac.in</t>
-  </si>
-  <si>
-    <t>29/12/2003</t>
-  </si>
-  <si>
-    <t>d2021.sakshi.kirmathe@ves.ac.in</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -163,78 +71,140 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -522,89 +492,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="14.57642857142857" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="30.29071428571428" bestFit="1" customWidth="1" style="12" min="3" max="3"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
+    <col width="25.14785714285714" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="E1" s="14" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>Piyush</t>
+        </is>
+      </c>
+      <c r="C2" s="15" t="inlineStr">
+        <is>
+          <t>d2021.piyush.chugeja@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>7506699134</v>
       </c>
-      <c r="E2" s="14">
-        <v>25569.229462604166</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
+      <c r="E2" s="14" t="n">
+        <v>25569.22946260417</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>Manraj</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>d2021.manrajsingh.virdi@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>8424036665</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>29/12/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>Sakshi</t>
+        </is>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>d2021.sakshi.kirmathe@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>8652839845</v>
       </c>
-      <c r="E4" s="17">
-        <v>25569.229462604166</v>
+      <c r="E4" s="17" t="n">
+        <v>25569.22946260417</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>dsds@gmas.d</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8779340262</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>04/07/2009</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -613,63 +635,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="34.43357142857143" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1">
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>Piyush Chugeja</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1">
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>Manraj</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>In-time: 08:43:19 
+Out-time: 15:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>Sakshi</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -678,102 +737,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="33.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="12" min="2" max="2"/>
+    <col width="15.86214285714286" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
+    <col width="34.43357142857143" bestFit="1" customWidth="1" style="13" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4">
-        <v>45021.229166666664</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33">
-      <c r="A2" s="5">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="E1" s="13" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="46.5">
-      <c r="A3" s="5">
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Piyush</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>In-time: 22:31:49 
+Out-time: 22:32:01</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>In-time: 02:12:12 
+Out-time: 03:30:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="46.5" customHeight="1">
+      <c r="A3" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="46.5">
-      <c r="A4" s="8">
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>Manraj</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>In-time: 08:43:19 Out-time: 15:43:54</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="44.25" customFormat="1" customHeight="1" s="9">
+      <c r="A4" s="10" t="n">
         <v>71</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>Sakshi</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>In-time: 08:52:16 Out-time: 13:43:54</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>In-time: 03:30:29 
+Out-time: 03:30:44</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -541,91 +541,95 @@
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>Piyush</t>
-        </is>
-      </c>
-      <c r="C2" s="15" t="inlineStr">
-        <is>
-          <t>d2021.piyush.chugeja@ves.ac.in</t>
+          <t>Manraj</t>
+        </is>
+      </c>
+      <c r="C2" s="16" t="inlineStr">
+        <is>
+          <t>d2021.manrajsingh.virdi@ves.ac.in</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>7506699134</v>
-      </c>
-      <c r="E2" s="14" t="n">
-        <v>25569.22946260417</v>
+        <v>8424036665</v>
+      </c>
+      <c r="E2" s="17" t="inlineStr">
+        <is>
+          <t>29/12/2003</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Manraj</t>
+          <t>Sakshi</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>d2021.manrajsingh.virdi@ves.ac.in</t>
+          <t>d2021.sakshi.kirmathe@ves.ac.in</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>8424036665</v>
-      </c>
-      <c r="E3" s="17" t="inlineStr">
-        <is>
-          <t>29/12/2003</t>
-        </is>
+        <v>8652839845</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>25569.22946260417</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>Sakshi</t>
-        </is>
-      </c>
-      <c r="C4" s="16" t="inlineStr">
-        <is>
-          <t>d2021.sakshi.kirmathe@ves.ac.in</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>8652839845</v>
-      </c>
-      <c r="E4" s="17" t="n">
-        <v>25569.22946260417</v>
+      <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dsds@gmas.d</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8779340262</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>04/07/2009</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nitesh</t>
+          <t>Piyush Chugeja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dsds@gmas.d</t>
+          <t>d2021.piyush.chugeja@ves.ac.in</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8779340262</t>
+          <t>7506699134</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>04/07/2009</t>
+          <t>02/12/2003</t>
         </is>
       </c>
     </row>
@@ -672,45 +676,45 @@
     </row>
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>Piyush Chugeja</t>
+          <t>Manraj</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>In-time: 08:43:19 
+Out-time: 15:43:54</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>Manraj</t>
+          <t>Sakshi</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>In-time: 08:43:19 
-Out-time: 15:43:54</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>Sakshi</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -718,11 +722,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nitesh</t>
+          <t>Piyush Chugeja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -786,46 +790,44 @@
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
-        <is>
-          <t>Piyush</t>
-        </is>
-      </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>A</t>
+        <v>69</v>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>Manraj</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>In-time: 08:43:19 Out-time: 15:43:54</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>In-time: 22:31:49 
-Out-time: 22:32:01</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>In-time: 02:12:12 
-Out-time: 03:30:47</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3" ht="46.5" customHeight="1">
-      <c r="A3" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Manraj</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>In-time: 08:43:19 Out-time: 15:43:54</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="A3" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>Sakshi</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>In-time: 08:52:16 Out-time: 13:43:54</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -837,37 +839,38 @@
       </c>
     </row>
     <row r="4" ht="44.25" customFormat="1" customHeight="1" s="9">
-      <c r="A4" s="10" t="n">
-        <v>71</v>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>Sakshi</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>In-time: 08:52:16 Out-time: 13:43:54</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="A4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>In-time: 03:30:29 
+Out-time: 13:45:49</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nitesh</t>
+          <t>Piyush Chugeja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -882,8 +885,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>In-time: 03:30:29 
-Out-time: 03:30:44</t>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,107 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Details"/>
-    <sheet r:id="rId2" sheetId="2" name="March"/>
-    <sheet r:id="rId3" sheetId="3" name="April"/>
+    <sheet name="Details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="March" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="April" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
-  <si>
-    <t>Roll no</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-04-06</t>
-  </si>
-  <si>
-    <t>2023-04-07</t>
-  </si>
-  <si>
-    <t>Nitesh</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>In-time: 03:30:29 
-Out-time: 13:45:49</t>
-  </si>
-  <si>
-    <t>Piyush Chugeja</t>
-  </si>
-  <si>
-    <t>2023-03-27</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>dsds@gmas.d</t>
-  </si>
-  <si>
-    <t>04/07/2009</t>
-  </si>
-  <si>
-    <t>d2021.piyush.chugeja@ves.ac.in</t>
-  </si>
-  <si>
-    <t>02/12/2003</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -124,72 +64,134 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -477,72 +479,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
+    <col width="14.57642857142857" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="30.29071428571428" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="15.005" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
+    <col width="25.14785714285714" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="E1" s="13" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>dsds@gmas.d</t>
+        </is>
+      </c>
+      <c r="D2" s="16" t="n">
         <v>8779340262</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7">
+      <c r="E2" s="17" t="inlineStr">
+        <is>
+          <t>04/07/2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Piyush Chugeja</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>d2021.piyush.chugeja@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="n">
         <v>7506699134</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>17</v>
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>02/12/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>manraj</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>manrajsvirdi@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8424036665</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29/12/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>xyz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>manrajsvirdi@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8424036665</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29-12-2003</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -551,52 +628,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="34.43357142857143" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="7">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>2023-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>Piyush Chugeja</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>manraj</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -605,72 +729,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
+    <col width="15.86214285714286" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="34.43357142857143" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="57" customFormat="1" s="5">
-      <c r="A2" s="6">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll no</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>2023-04-06</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="57" customFormat="1" customHeight="1" s="5">
+      <c r="A2" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5">
-      <c r="A3" s="7">
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>Nitesh</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>In-time: 03:30:29 
+Out-time: 13:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1">
+      <c r="A3" s="7" t="n">
         <v>72</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>Piyush Chugeja</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>69</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>manraj</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>In-time: 15:16:53 
+Out-time: 15:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>73</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -66,29 +66,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -104,19 +104,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -484,7 +481,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +493,7 @@
     <col width="14.57642857142857" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
     <col width="30.29071428571428" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
     <col width="15.005" bestFit="1" customWidth="1" style="16" min="4" max="4"/>
-    <col width="25.14785714285714" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="25.14785714285714" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -527,7 +524,7 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -537,88 +534,61 @@
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>dsds@gmas.d</t>
-        </is>
-      </c>
-      <c r="D2" s="16" t="n">
+          <t>chugejanitesh@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>8779340262</v>
       </c>
-      <c r="E2" s="17" t="inlineStr">
+      <c r="E2" s="14" t="inlineStr">
         <is>
           <t>04/07/2009</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>manraj</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>manrajsvirdi@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="n">
+        <v>8424036665</v>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>29/12/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Piyush Chugeja</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Piyush</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>d2021.piyush.chugeja@ves.ac.in</t>
         </is>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D4" s="16" t="n">
         <v>7506699134</v>
       </c>
-      <c r="E3" s="17" t="inlineStr">
+      <c r="E4" s="11" t="inlineStr">
         <is>
           <t>02/12/2003</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>69</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>manraj</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>manrajsvirdi@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8424036665</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29/12/2003</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>73</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>xyz</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>manrajsvirdi@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8424036665</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29-12-2003</t>
         </is>
       </c>
     </row>
@@ -633,7 +603,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,7 +634,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -672,52 +642,37 @@
           <t>Nitesh</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>manraj</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Piyush Chugeja</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>69</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>manraj</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>73</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Piyush</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -734,7 +689,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,7 +710,7 @@
           <t>Roll no</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -770,45 +725,45 @@
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="57" customFormat="1" customHeight="1" s="5">
-      <c r="A2" s="6" t="n">
+    <row r="2" ht="57" customFormat="1" customHeight="1" s="4">
+      <c r="A2" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Nitesh</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>In-time: 03:30:29 
 Out-time: 13:45:49</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="7" t="n">
-        <v>72</v>
+    <row r="3" ht="44.25" customHeight="1">
+      <c r="A3" s="6" t="n">
+        <v>69</v>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Piyush Chugeja</t>
+          <t>manraj</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
@@ -822,59 +777,35 @@
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>69</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>manraj</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>In-time: 15:16:53 
 Out-time: 15:21:25</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>73</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="4" ht="44.25" customHeight="1">
+      <c r="A4" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Piyush</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A</t>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>In-time: 16:30:03 
+Out-time: 17:04:29</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -60,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -71,11 +77,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -93,7 +105,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,7 +475,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,136 +483,186 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12.14785714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="14.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="30.29071428571428" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="14.29071428571429" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="10.71928571428571" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col width="12.14785714285714" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="14.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="30.29071428571428" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
+    <col width="14.29071428571429" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
+    <col width="12.29071428571429" bestFit="1" customWidth="1" style="14" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Employee ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Phone number</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>DOB</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Deven</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>d2021.deven.bhagtani@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>7218572159</t>
+        </is>
+      </c>
+      <c r="E2" s="12" t="inlineStr">
+        <is>
+          <t>10/10/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Manraj</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>d2021.manrajsingh.virdi@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>8424036665</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>29/12/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Sakshi</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>d2021.sakshi.kirmathe@ves.ac.in</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>8652839845</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>25569.22960430555</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Piyush</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>d2021.piyush.chugeja@ves.ac.in</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>piyushchugeja@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>7506699134</t>
         </is>
       </c>
-      <c r="E2" s="10" t="inlineStr">
-        <is>
-          <t>02/12/2003</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Deven</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>d2021.deven.bhagtani@ves.ac.in</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>7218572159</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>10/10/2003</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Manraj</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>d2021.manrajsingh.virdi@ves.ac.in</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>8424036665</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>29/12/2003</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Sakshi</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>d2021.sakshi.kirmathe@ves.ac.in</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>8652839845</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>37812</v>
+      <c r="E5" s="14" t="inlineStr">
+        <is>
+          <t>01/12/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Divyaa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dthaivalappil@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9967550586</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01/02/2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>74</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arya</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>arya232004@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9004697366</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23/01/2004</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -611,7 +676,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,59 +684,79 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Roll no</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Deven</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>Manraj</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>Sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="n">
         <v>72</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Piyush</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>Deven</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Manraj</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Sakshi</t>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Divyaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>74</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arya</t>
         </is>
       </c>
     </row>
@@ -686,7 +771,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,13 +779,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col hidden="1" width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="38.71928571428572" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col hidden="1" width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col hidden="1" width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="31.43357142857143" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col hidden="1" width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="38.71928571428572" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col hidden="1" width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col hidden="1" width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="31.43357142857143" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -734,156 +821,295 @@
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>2023-04-09</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Piyush</t>
+          <t>Deven</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>In-time: 08:52:50 Out-time: 15:03:26</t>
+          <t>In-time: 09:02:30 Out-time: 15:13:26</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>In-time: 08:25:46 Out-time: 14:02:52</t>
+          <t>In-time: 08:45:10 Out-time: 15:10:46</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>In-time: 09:52:30 Out-time: 15:10:48</t>
+          <t>In-time: 08:50:30 Out-time: 14:50:26</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>In-time: 08:30:50 Out-time: 15:00:26</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>In-time: 12:52:50 Out-time: 18:53:26</t>
+          <t>In-time: 08:32:10 Out-time: 15:05:33</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Deven</t>
+          <t>Manraj</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>In-time: 09:02:30 Out-time: 15:13:26</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>In-time: 08:45:10 Out-time: 15:10:46</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>In-time: 08:50:30 Out-time: 14:50:26</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>In-time: 08:32:10 Out-time: 15:05:33</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Manraj</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>In-time: 08:46:50 
 Out-time: 14:53:26</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>In-time: 08:36:11 Out-time: 15:03:21</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>In-time: 08:58:40 
 Out-time: 14:47:05</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>In-time: 08:15:50 
 Out-time: 14:30:26</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>In-time: 18:52:50 Out-time: 18:53:26</t>
         </is>
       </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="1" t="n">
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Sakshi</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>In-time: 08:50:45 
 Out-time: 15:05:25</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>In-time: 08:38:25 Out-time: 15:10:45</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>In-time: 08:56:15 
 Out-time: 15:10:55</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>In-time: 09:00:45 
 Out-time: 15:52:25</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>In-time: 19:56:29 
-Out-time: 19:59:08</t>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Piyush</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>In-time: 09:17:21 Out-time: 15:16:55</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>In-time: 08:14:58 Out-time: 14:52:55</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>In-time: 08:25:28 Out-time: 15:11:12</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>In-time: 09:17:28 Out-time: 13:18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Divyaa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>74</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arya</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1019,7 +1019,8 @@
       </c>
       <c r="I5" s="8" t="inlineStr">
         <is>
-          <t>In-time: 09:17:28 Out-time: 13:18:55</t>
+          <t>In-time: 09:17:28 
+Out-time: 20:07:18</t>
         </is>
       </c>
     </row>
